--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File\Kuliah\LAIN-LAIN\RESEARCH\Mr.Fadhil\AUGUST-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File\Kuliah\LAIN-LAIN\RESEARCH\Mr.Fadhil\AUGUST-1\GIK_ServerLatencyThroughput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884D10B-62E7-4B84-A69F-748622F81FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62324FE-B577-433C-91DB-226B9F65D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{C087D4E3-60E5-49DA-BD73-EAB34A6CD0FE}"/>
+    <workbookView xWindow="-23148" yWindow="12" windowWidth="23256" windowHeight="12720" xr2:uid="{C087D4E3-60E5-49DA-BD73-EAB34A6CD0FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0980F8-F292-4EA2-8ED0-E28BC372300D}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
